--- a/coste.xlsx
+++ b/coste.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>ciudades_id</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>restaurantes</t>
+  </si>
+  <si>
+    <t>calculo_viaje</t>
   </si>
   <si>
     <t>Albania</t>
@@ -491,13 +494,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -519,13 +522,16 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>36.17</v>
@@ -542,13 +548,16 @@
       <c r="G2">
         <v>29.34</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2">
+        <v>217.02</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>71.79000000000001</v>
@@ -565,13 +574,16 @@
       <c r="G3">
         <v>70.08</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>430.74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>33.12</v>
@@ -588,13 +600,16 @@
       <c r="G4">
         <v>35.98</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4">
+        <v>198.72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>37.17</v>
@@ -611,13 +626,16 @@
       <c r="G5">
         <v>29.86</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>223.02</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>81.38</v>
@@ -634,13 +652,16 @@
       <c r="G6">
         <v>95.14</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6">
+        <v>488.28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7">
         <v>52.51</v>
@@ -657,13 +678,16 @@
       <c r="G7">
         <v>43.83</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7">
+        <v>315.06</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8">
         <v>51.01</v>
@@ -680,13 +704,16 @@
       <c r="G8">
         <v>51.24</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8">
+        <v>306.06</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9">
         <v>74.84999999999999</v>
@@ -703,13 +730,16 @@
       <c r="G9">
         <v>75.37</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9">
+        <v>449.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10">
         <v>56.66</v>
@@ -726,13 +756,16 @@
       <c r="G10">
         <v>54.76</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10">
+        <v>339.96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11">
         <v>75.34999999999999</v>
@@ -749,13 +782,16 @@
       <c r="G11">
         <v>82.65000000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11">
+        <v>452.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12">
         <v>69.25</v>
@@ -772,13 +808,16 @@
       <c r="G12">
         <v>75.72</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12">
+        <v>415.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13">
         <v>45.91</v>
@@ -795,13 +834,16 @@
       <c r="G13">
         <v>43.95</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13">
+        <v>275.46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14">
         <v>31.58</v>
@@ -818,13 +860,16 @@
       <c r="G14">
         <v>23.67</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14">
+        <v>189.48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C15">
         <v>32.26</v>
@@ -841,13 +886,16 @@
       <c r="G15">
         <v>27.71</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>193.56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C16">
         <v>74.83</v>
@@ -864,13 +912,16 @@
       <c r="G16">
         <v>83.48999999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16">
+        <v>448.98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C17">
         <v>50.39</v>
@@ -887,13 +938,16 @@
       <c r="G17">
         <v>43.13</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>302.34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18">
         <v>45.12</v>
@@ -910,13 +964,16 @@
       <c r="G18">
         <v>33.25</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>270.72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19">
         <v>71.55</v>
@@ -933,13 +990,16 @@
       <c r="G19">
         <v>75.04000000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>429.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20">
         <v>67.62</v>
@@ -956,13 +1016,16 @@
       <c r="G20">
         <v>63.56</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20">
+        <v>405.72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C21">
         <v>72.97</v>
@@ -979,13 +1042,16 @@
       <c r="G21">
         <v>83.40000000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21">
+        <v>437.82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C22">
         <v>35.72</v>
@@ -1002,13 +1068,16 @@
       <c r="G22">
         <v>23.78</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>214.32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C23">
         <v>49.18</v>
@@ -1025,13 +1094,16 @@
       <c r="G23">
         <v>40.36</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>295.08</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C24">
         <v>44.98</v>
@@ -1048,13 +1120,16 @@
       <c r="G24">
         <v>33.64</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24">
+        <v>269.88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C25">
         <v>72.81999999999999</v>
@@ -1071,13 +1146,16 @@
       <c r="G25">
         <v>77.91</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25">
+        <v>436.92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C26">
         <v>42.03</v>
@@ -1094,13 +1172,16 @@
       <c r="G26">
         <v>33.43</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26">
+        <v>252.18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C27">
         <v>101.86</v>
@@ -1117,13 +1198,16 @@
       <c r="G27">
         <v>111.85</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>611.16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C28">
         <v>49.23</v>
@@ -1140,13 +1224,16 @@
       <c r="G28">
         <v>45.47</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28">
+        <v>295.38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>86.09</v>
@@ -1163,13 +1250,16 @@
       <c r="G29">
         <v>96.08</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29">
+        <v>516.54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C30">
         <v>63.32</v>
@@ -1186,13 +1276,16 @@
       <c r="G30">
         <v>67.28</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30">
+        <v>379.92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C31">
         <v>100.99</v>
@@ -1209,13 +1302,16 @@
       <c r="G31">
         <v>111.53</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="H31">
+        <v>605.9399999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C32">
         <v>39.13</v>
@@ -1232,13 +1328,16 @@
       <c r="G32">
         <v>32.72</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32">
+        <v>234.78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C33">
         <v>36.45</v>
@@ -1255,13 +1354,16 @@
       <c r="G33">
         <v>32.26</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="H33">
+        <v>218.7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C34">
         <v>35.39</v>
@@ -1277,6 +1379,9 @@
       </c>
       <c r="G34">
         <v>27.84</v>
+      </c>
+      <c r="H34">
+        <v>212.34</v>
       </c>
     </row>
   </sheetData>

--- a/coste.xlsx
+++ b/coste.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>ciudades_id</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>restaurantes</t>
-  </si>
-  <si>
-    <t>calculo_viaje</t>
   </si>
   <si>
     <t>Albania</t>
@@ -494,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -522,16 +519,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>36.17</v>
@@ -548,16 +542,13 @@
       <c r="G2">
         <v>29.34</v>
       </c>
-      <c r="H2">
-        <v>217.02</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>71.79000000000001</v>
@@ -574,16 +565,13 @@
       <c r="G3">
         <v>70.08</v>
       </c>
-      <c r="H3">
-        <v>430.74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>33.12</v>
@@ -600,16 +588,13 @@
       <c r="G4">
         <v>35.98</v>
       </c>
-      <c r="H4">
-        <v>198.72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>37.17</v>
@@ -626,16 +611,13 @@
       <c r="G5">
         <v>29.86</v>
       </c>
-      <c r="H5">
-        <v>223.02</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>81.38</v>
@@ -652,16 +634,13 @@
       <c r="G6">
         <v>95.14</v>
       </c>
-      <c r="H6">
-        <v>488.28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>52.51</v>
@@ -678,16 +657,13 @@
       <c r="G7">
         <v>43.83</v>
       </c>
-      <c r="H7">
-        <v>315.06</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8">
         <v>51.01</v>
@@ -704,16 +680,13 @@
       <c r="G8">
         <v>51.24</v>
       </c>
-      <c r="H8">
-        <v>306.06</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9">
         <v>74.84999999999999</v>
@@ -730,16 +703,13 @@
       <c r="G9">
         <v>75.37</v>
       </c>
-      <c r="H9">
-        <v>449.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10">
         <v>56.66</v>
@@ -756,16 +726,13 @@
       <c r="G10">
         <v>54.76</v>
       </c>
-      <c r="H10">
-        <v>339.96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11">
         <v>75.34999999999999</v>
@@ -782,16 +749,13 @@
       <c r="G11">
         <v>82.65000000000001</v>
       </c>
-      <c r="H11">
-        <v>452.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12">
         <v>69.25</v>
@@ -808,16 +772,13 @@
       <c r="G12">
         <v>75.72</v>
       </c>
-      <c r="H12">
-        <v>415.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13">
         <v>45.91</v>
@@ -834,16 +795,13 @@
       <c r="G13">
         <v>43.95</v>
       </c>
-      <c r="H13">
-        <v>275.46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14">
         <v>31.58</v>
@@ -860,16 +818,13 @@
       <c r="G14">
         <v>23.67</v>
       </c>
-      <c r="H14">
-        <v>189.48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15">
         <v>32.26</v>
@@ -886,16 +841,13 @@
       <c r="G15">
         <v>27.71</v>
       </c>
-      <c r="H15">
-        <v>193.56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16">
         <v>74.83</v>
@@ -912,16 +864,13 @@
       <c r="G16">
         <v>83.48999999999999</v>
       </c>
-      <c r="H16">
-        <v>448.98</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17">
         <v>50.39</v>
@@ -938,16 +887,13 @@
       <c r="G17">
         <v>43.13</v>
       </c>
-      <c r="H17">
-        <v>302.34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18">
         <v>45.12</v>
@@ -964,16 +910,13 @@
       <c r="G18">
         <v>33.25</v>
       </c>
-      <c r="H18">
-        <v>270.72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19">
         <v>71.55</v>
@@ -990,16 +933,13 @@
       <c r="G19">
         <v>75.04000000000001</v>
       </c>
-      <c r="H19">
-        <v>429.3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20">
         <v>67.62</v>
@@ -1016,16 +956,13 @@
       <c r="G20">
         <v>63.56</v>
       </c>
-      <c r="H20">
-        <v>405.72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21">
         <v>72.97</v>
@@ -1042,16 +979,13 @@
       <c r="G21">
         <v>83.40000000000001</v>
       </c>
-      <c r="H21">
-        <v>437.82</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22">
         <v>35.72</v>
@@ -1068,16 +1002,13 @@
       <c r="G22">
         <v>23.78</v>
       </c>
-      <c r="H22">
-        <v>214.32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23">
         <v>49.18</v>
@@ -1094,16 +1025,13 @@
       <c r="G23">
         <v>40.36</v>
       </c>
-      <c r="H23">
-        <v>295.08</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24">
         <v>44.98</v>
@@ -1120,16 +1048,13 @@
       <c r="G24">
         <v>33.64</v>
       </c>
-      <c r="H24">
-        <v>269.88</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25">
         <v>72.81999999999999</v>
@@ -1146,16 +1071,13 @@
       <c r="G25">
         <v>77.91</v>
       </c>
-      <c r="H25">
-        <v>436.92</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C26">
         <v>42.03</v>
@@ -1172,16 +1094,13 @@
       <c r="G26">
         <v>33.43</v>
       </c>
-      <c r="H26">
-        <v>252.18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C27">
         <v>101.86</v>
@@ -1198,16 +1117,13 @@
       <c r="G27">
         <v>111.85</v>
       </c>
-      <c r="H27">
-        <v>611.16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C28">
         <v>49.23</v>
@@ -1224,16 +1140,13 @@
       <c r="G28">
         <v>45.47</v>
       </c>
-      <c r="H28">
-        <v>295.38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C29">
         <v>86.09</v>
@@ -1250,16 +1163,13 @@
       <c r="G29">
         <v>96.08</v>
       </c>
-      <c r="H29">
-        <v>516.54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>63.32</v>
@@ -1276,16 +1186,13 @@
       <c r="G30">
         <v>67.28</v>
       </c>
-      <c r="H30">
-        <v>379.92</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C31">
         <v>100.99</v>
@@ -1302,16 +1209,13 @@
       <c r="G31">
         <v>111.53</v>
       </c>
-      <c r="H31">
-        <v>605.9399999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C32">
         <v>39.13</v>
@@ -1328,16 +1232,13 @@
       <c r="G32">
         <v>32.72</v>
       </c>
-      <c r="H32">
-        <v>234.78</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C33">
         <v>36.45</v>
@@ -1354,16 +1255,13 @@
       <c r="G33">
         <v>32.26</v>
       </c>
-      <c r="H33">
-        <v>218.7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C34">
         <v>35.39</v>
@@ -1379,9 +1277,6 @@
       </c>
       <c r="G34">
         <v>27.84</v>
-      </c>
-      <c r="H34">
-        <v>212.34</v>
       </c>
     </row>
   </sheetData>
